--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>178.330183503751</v>
+        <v>179.8169556666667</v>
       </c>
       <c r="H2">
-        <v>178.330183503751</v>
+        <v>539.450867</v>
       </c>
       <c r="I2">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929968</v>
       </c>
       <c r="J2">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929969</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>10619.89624120322</v>
+        <v>10814.79937522552</v>
       </c>
       <c r="R2">
-        <v>10619.89624120322</v>
+        <v>97333.19437702965</v>
       </c>
       <c r="S2">
-        <v>0.1187471585963278</v>
+        <v>0.116100492595671</v>
       </c>
       <c r="T2">
-        <v>0.1187471585963278</v>
+        <v>0.116100492595671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>178.330183503751</v>
+        <v>179.8169556666667</v>
       </c>
       <c r="H3">
-        <v>178.330183503751</v>
+        <v>539.450867</v>
       </c>
       <c r="I3">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929968</v>
       </c>
       <c r="J3">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929969</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>1936.699787010348</v>
+        <v>1986.990786449357</v>
       </c>
       <c r="R3">
-        <v>1936.699787010348</v>
+        <v>17882.91707804421</v>
       </c>
       <c r="S3">
-        <v>0.02165535251364525</v>
+        <v>0.0213310114303456</v>
       </c>
       <c r="T3">
-        <v>0.02165535251364525</v>
+        <v>0.02133101143034561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>178.330183503751</v>
+        <v>179.8169556666667</v>
       </c>
       <c r="H4">
-        <v>178.330183503751</v>
+        <v>539.450867</v>
       </c>
       <c r="I4">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929968</v>
       </c>
       <c r="J4">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>2146.414937484264</v>
+        <v>2203.627421592241</v>
       </c>
       <c r="R4">
-        <v>2146.414937484264</v>
+        <v>19832.64679433017</v>
       </c>
       <c r="S4">
-        <v>0.02400029804491698</v>
+        <v>0.0236566782487218</v>
       </c>
       <c r="T4">
-        <v>0.02400029804491698</v>
+        <v>0.0236566782487218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>178.330183503751</v>
+        <v>179.8169556666667</v>
       </c>
       <c r="H5">
-        <v>178.330183503751</v>
+        <v>539.450867</v>
       </c>
       <c r="I5">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929968</v>
       </c>
       <c r="J5">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929969</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>2305.918808654679</v>
+        <v>2359.306168703111</v>
       </c>
       <c r="R5">
-        <v>2305.918808654679</v>
+        <v>21233.755518328</v>
       </c>
       <c r="S5">
-        <v>0.02578380242729647</v>
+        <v>0.0253279417275112</v>
       </c>
       <c r="T5">
-        <v>0.02578380242729647</v>
+        <v>0.0253279417275112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>178.330183503751</v>
+        <v>179.8169556666667</v>
       </c>
       <c r="H6">
-        <v>178.330183503751</v>
+        <v>539.450867</v>
       </c>
       <c r="I6">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929968</v>
       </c>
       <c r="J6">
-        <v>0.2182044773057266</v>
+        <v>0.2160634987929969</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N6">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q6">
-        <v>2505.717445378624</v>
+        <v>2761.662790533288</v>
       </c>
       <c r="R6">
-        <v>2505.717445378624</v>
+        <v>24854.96511479959</v>
       </c>
       <c r="S6">
-        <v>0.02801786572354015</v>
+        <v>0.02964737479074725</v>
       </c>
       <c r="T6">
-        <v>0.02801786572354015</v>
+        <v>0.02964737479074725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>137.22372183823</v>
+        <v>137.242879</v>
       </c>
       <c r="H7">
-        <v>137.22372183823</v>
+        <v>411.728637</v>
       </c>
       <c r="I7">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="J7">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N7">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q7">
-        <v>8171.929502461835</v>
+        <v>8254.250532495767</v>
       </c>
       <c r="R7">
-        <v>8171.929502461835</v>
+        <v>74288.2547924619</v>
       </c>
       <c r="S7">
-        <v>0.09137503668839055</v>
+        <v>0.08861214337698747</v>
       </c>
       <c r="T7">
-        <v>0.09137503668839055</v>
+        <v>0.08861214337698749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>137.22372183823</v>
+        <v>137.242879</v>
       </c>
       <c r="H8">
-        <v>137.22372183823</v>
+        <v>411.728637</v>
       </c>
       <c r="I8">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="J8">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N8">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q8">
-        <v>1490.275777410823</v>
+        <v>1516.544060418299</v>
       </c>
       <c r="R8">
-        <v>1490.275777410823</v>
+        <v>13648.89654376469</v>
       </c>
       <c r="S8">
-        <v>0.01666362929289963</v>
+        <v>0.01628060829874913</v>
       </c>
       <c r="T8">
-        <v>0.01666362929289963</v>
+        <v>0.01628060829874914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>137.22372183823</v>
+        <v>137.242879</v>
       </c>
       <c r="H9">
-        <v>137.22372183823</v>
+        <v>411.728637</v>
       </c>
       <c r="I9">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="J9">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N9">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q9">
-        <v>1651.649992972543</v>
+        <v>1681.889065808097</v>
       </c>
       <c r="R9">
-        <v>1651.649992972543</v>
+        <v>15137.00159227287</v>
       </c>
       <c r="S9">
-        <v>0.01846804707000724</v>
+        <v>0.01805564229687997</v>
       </c>
       <c r="T9">
-        <v>0.01846804707000724</v>
+        <v>0.01805564229687997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>137.22372183823</v>
+        <v>137.242879</v>
       </c>
       <c r="H10">
-        <v>137.22372183823</v>
+        <v>411.728637</v>
       </c>
       <c r="I10">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="J10">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N10">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q10">
-        <v>1774.387010450851</v>
+        <v>1800.708780964521</v>
       </c>
       <c r="R10">
-        <v>1774.387010450851</v>
+        <v>16206.37902868069</v>
       </c>
       <c r="S10">
-        <v>0.01984044014703091</v>
+        <v>0.01933121172550384</v>
       </c>
       <c r="T10">
-        <v>0.01984044014703091</v>
+        <v>0.01933121172550384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>137.22372183823</v>
+        <v>137.242879</v>
       </c>
       <c r="H11">
-        <v>137.22372183823</v>
+        <v>411.728637</v>
       </c>
       <c r="I11">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="J11">
-        <v>0.1679066880847324</v>
+        <v>0.1649075667599061</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N11">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q11">
-        <v>1928.130543995118</v>
+        <v>2107.802074586131</v>
       </c>
       <c r="R11">
-        <v>1928.130543995118</v>
+        <v>18970.21867127518</v>
       </c>
       <c r="S11">
-        <v>0.02155953488640404</v>
+        <v>0.02262796106178567</v>
       </c>
       <c r="T11">
-        <v>0.02155953488640404</v>
+        <v>0.02262796106178568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>220.241573477514</v>
+        <v>220.2647753333333</v>
       </c>
       <c r="H12">
-        <v>220.241573477514</v>
+        <v>660.7943260000001</v>
       </c>
       <c r="I12">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="J12">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N12">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q12">
-        <v>13115.79796743347</v>
+        <v>13247.46793664411</v>
       </c>
       <c r="R12">
-        <v>13115.79796743347</v>
+        <v>119227.211429797</v>
       </c>
       <c r="S12">
-        <v>0.1466552691271639</v>
+        <v>0.1422160041741566</v>
       </c>
       <c r="T12">
-        <v>0.1466552691271639</v>
+        <v>0.1422160041741566</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>220.241573477514</v>
+        <v>220.2647753333333</v>
       </c>
       <c r="H13">
-        <v>220.241573477514</v>
+        <v>660.7943260000001</v>
       </c>
       <c r="I13">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="J13">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N13">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q13">
-        <v>2391.865471476697</v>
+        <v>2433.942213869892</v>
       </c>
       <c r="R13">
-        <v>2391.865471476697</v>
+        <v>21905.47992482903</v>
       </c>
       <c r="S13">
-        <v>0.02674482142118779</v>
+        <v>0.02612918466402895</v>
       </c>
       <c r="T13">
-        <v>0.02674482142118779</v>
+        <v>0.02612918466402895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>220.241573477514</v>
+        <v>220.2647753333333</v>
       </c>
       <c r="H14">
-        <v>220.241573477514</v>
+        <v>660.7943260000001</v>
       </c>
       <c r="I14">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="J14">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N14">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q14">
-        <v>2650.868147383647</v>
+        <v>2699.308845130029</v>
       </c>
       <c r="R14">
-        <v>2650.868147383647</v>
+        <v>24293.77960617026</v>
       </c>
       <c r="S14">
-        <v>0.02964087907883881</v>
+        <v>0.0289779843078146</v>
       </c>
       <c r="T14">
-        <v>0.02964087907883881</v>
+        <v>0.0289779843078146</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>220.241573477514</v>
+        <v>220.2647753333333</v>
       </c>
       <c r="H15">
-        <v>220.241573477514</v>
+        <v>660.7943260000001</v>
       </c>
       <c r="I15">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="J15">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N15">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q15">
-        <v>2847.858824296105</v>
+        <v>2890.005790973758</v>
       </c>
       <c r="R15">
-        <v>2847.858824296105</v>
+        <v>26010.05211876383</v>
       </c>
       <c r="S15">
-        <v>0.03184354496389376</v>
+        <v>0.03102517987573842</v>
       </c>
       <c r="T15">
-        <v>0.03184354496389376</v>
+        <v>0.03102517987573842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>220.241573477514</v>
+        <v>220.2647753333333</v>
       </c>
       <c r="H16">
-        <v>220.241573477514</v>
+        <v>660.7943260000001</v>
       </c>
       <c r="I16">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="J16">
-        <v>0.2694871752915619</v>
+        <v>0.264664574277383</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N16">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q16">
-        <v>3094.614394588099</v>
+        <v>3382.868049611872</v>
       </c>
       <c r="R16">
-        <v>3094.614394588099</v>
+        <v>30445.81244650685</v>
       </c>
       <c r="S16">
-        <v>0.03460266070047752</v>
+        <v>0.03631622125564443</v>
       </c>
       <c r="T16">
-        <v>0.03460266070047752</v>
+        <v>0.03631622125564443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>184.743038630719</v>
+        <v>185.6360623333333</v>
       </c>
       <c r="H17">
-        <v>184.743038630719</v>
+        <v>556.908187</v>
       </c>
       <c r="I17">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="J17">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N17">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q17">
-        <v>11001.79376814003</v>
+        <v>11164.78011485998</v>
       </c>
       <c r="R17">
-        <v>11001.79376814003</v>
+        <v>100483.0210337398</v>
       </c>
       <c r="S17">
-        <v>0.1230173741585819</v>
+        <v>0.1198576530256314</v>
       </c>
       <c r="T17">
-        <v>0.1230173741585819</v>
+        <v>0.1198576530256314</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>184.743038630719</v>
+        <v>185.6360623333333</v>
       </c>
       <c r="H18">
-        <v>184.743038630719</v>
+        <v>556.908187</v>
       </c>
       <c r="I18">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="J18">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N18">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q18">
-        <v>2006.344616138593</v>
+        <v>2051.292349609321</v>
       </c>
       <c r="R18">
-        <v>2006.344616138593</v>
+        <v>18461.63114648389</v>
       </c>
       <c r="S18">
-        <v>0.02243409134329777</v>
+        <v>0.02202131024205036</v>
       </c>
       <c r="T18">
-        <v>0.02243409134329777</v>
+        <v>0.02202131024205036</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>184.743038630719</v>
+        <v>185.6360623333333</v>
       </c>
       <c r="H19">
-        <v>184.743038630719</v>
+        <v>556.908187</v>
       </c>
       <c r="I19">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="J19">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N19">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q19">
-        <v>2223.601243055229</v>
+        <v>2274.939623338153</v>
       </c>
       <c r="R19">
-        <v>2223.601243055229</v>
+        <v>20474.45661004337</v>
       </c>
       <c r="S19">
-        <v>0.02486336245354452</v>
+        <v>0.02442223861313767</v>
       </c>
       <c r="T19">
-        <v>0.02486336245354452</v>
+        <v>0.02442223861313766</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>184.743038630719</v>
+        <v>185.6360623333333</v>
       </c>
       <c r="H20">
-        <v>184.743038630719</v>
+        <v>556.908187</v>
       </c>
       <c r="I20">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="J20">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N20">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q20">
-        <v>2388.840964421664</v>
+        <v>2435.656333814671</v>
       </c>
       <c r="R20">
-        <v>2388.840964421664</v>
+        <v>21920.90700433204</v>
       </c>
       <c r="S20">
-        <v>0.02671100267091166</v>
+        <v>0.026147586315604</v>
       </c>
       <c r="T20">
-        <v>0.02671100267091166</v>
+        <v>0.026147586315604</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>184.743038630719</v>
+        <v>185.6360623333333</v>
       </c>
       <c r="H21">
-        <v>184.743038630719</v>
+        <v>556.908187</v>
       </c>
       <c r="I21">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="J21">
-        <v>0.226051234784042</v>
+        <v>0.2230555899536344</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N21">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q21">
-        <v>2595.824474097021</v>
+        <v>2851.033730531115</v>
       </c>
       <c r="R21">
-        <v>2595.824474097021</v>
+        <v>25659.30357478003</v>
       </c>
       <c r="S21">
-        <v>0.02902540415770616</v>
+        <v>0.03060680175721092</v>
       </c>
       <c r="T21">
-        <v>0.02902540415770616</v>
+        <v>0.03060680175721092</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>96.72328077536631</v>
+        <v>109.2805746666667</v>
       </c>
       <c r="H22">
-        <v>96.72328077536631</v>
+        <v>327.841724</v>
       </c>
       <c r="I22">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160797</v>
       </c>
       <c r="J22">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160798</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N22">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q22">
-        <v>5760.052425009425</v>
+        <v>6572.50305594199</v>
       </c>
       <c r="R22">
-        <v>5760.052425009425</v>
+        <v>59152.52750347791</v>
       </c>
       <c r="S22">
-        <v>0.06440645400865623</v>
+        <v>0.07055802108816336</v>
       </c>
       <c r="T22">
-        <v>0.06440645400865623</v>
+        <v>0.07055802108816336</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>96.72328077536631</v>
+        <v>109.2805746666667</v>
       </c>
       <c r="H23">
-        <v>96.72328077536631</v>
+        <v>327.841724</v>
       </c>
       <c r="I23">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160797</v>
       </c>
       <c r="J23">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160798</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N23">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q23">
-        <v>1050.433267078727</v>
+        <v>1207.558509682909</v>
       </c>
       <c r="R23">
-        <v>1050.433267078727</v>
+        <v>10868.02658714618</v>
       </c>
       <c r="S23">
-        <v>0.01174549759504278</v>
+        <v>0.01296354494873434</v>
       </c>
       <c r="T23">
-        <v>0.01174549759504278</v>
+        <v>0.01296354494873434</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>96.72328077536631</v>
+        <v>109.2805746666667</v>
       </c>
       <c r="H24">
-        <v>96.72328077536631</v>
+        <v>327.841724</v>
       </c>
       <c r="I24">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160797</v>
       </c>
       <c r="J24">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160798</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N24">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q24">
-        <v>1164.179224064803</v>
+        <v>1339.215593379471</v>
       </c>
       <c r="R24">
-        <v>1164.179224064803</v>
+        <v>12052.94034041524</v>
       </c>
       <c r="S24">
-        <v>0.01301735646137633</v>
+        <v>0.01437692782719034</v>
       </c>
       <c r="T24">
-        <v>0.01301735646137633</v>
+        <v>0.01437692782719034</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>96.72328077536631</v>
+        <v>109.2805746666667</v>
       </c>
       <c r="H25">
-        <v>96.72328077536631</v>
+        <v>327.841724</v>
       </c>
       <c r="I25">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160797</v>
       </c>
       <c r="J25">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160798</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N25">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q25">
-        <v>1250.691430876105</v>
+        <v>1433.826598690892</v>
       </c>
       <c r="R25">
-        <v>1250.691430876105</v>
+        <v>12904.43938821803</v>
       </c>
       <c r="S25">
-        <v>0.01398469912738867</v>
+        <v>0.01539260864941535</v>
       </c>
       <c r="T25">
-        <v>0.01398469912738867</v>
+        <v>0.01539260864941535</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>96.72328077536631</v>
+        <v>109.2805746666667</v>
       </c>
       <c r="H26">
-        <v>96.72328077536631</v>
+        <v>327.841724</v>
       </c>
       <c r="I26">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160797</v>
       </c>
       <c r="J26">
-        <v>0.1183504245339372</v>
+        <v>0.1313087702160798</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N26">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q26">
-        <v>1359.058838225176</v>
+        <v>1678.351719759279</v>
       </c>
       <c r="R26">
-        <v>1359.058838225176</v>
+        <v>15105.16547783351</v>
       </c>
       <c r="S26">
-        <v>0.01519641734147312</v>
+        <v>0.01801766770257636</v>
       </c>
       <c r="T26">
-        <v>0.01519641734147312</v>
+        <v>0.01801766770257636</v>
       </c>
     </row>
   </sheetData>
